--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kafka"]First off, drop that “young.” I'm just some random li'l shortie.
+    <t xml:space="preserve">[name="Kafka"]First off, drop that 'young.' I'm just some random li'l shortie.
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anthony"]Do you mean, “illicit?”
+    <t xml:space="preserve">[name="Anthony"]Do you mean, 'illicit?'
 </t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anthony"]Even with all this supposed “charisma” I have, as a prisoner, I can't bend the jailers, let alone the warden. I should never have earned my current standing.
+    <t xml:space="preserve">[name="Anthony"]Even with all this supposed 'charisma' I have, as a prisoner, I can't bend the jailers, let alone the warden. I should never have earned my current standing.
 </t>
   </si>
   <si>
@@ -1904,7 +1904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anthony"]At least, what little I know is that the warden himself said it. He told them to be “slightly nicer” with me.
+    <t xml:space="preserve">[name="Anthony"]At least, what little I know is that the warden himself said it. He told them to be 'slightly nicer' with me.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anthony"]...I’m alright.
+    <t xml:space="preserve">[name="Anthony"]...I'm alright.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_03_end.xlsx
@@ -808,7 +808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ミュルジス"]きっとアンソニーさんが勝ったんでしょうけど、獄中で暗殺未遂事件が起きたんだもの、そう適当に終わるはずはないでしょ？
+    <t xml:space="preserve">[name="ミュルジス"]きっとアンソニーさんが勝ったんでしょうけど、獄中で暗殺未遂事件が起きたんだもの、そう簡単に終わるはずはないでしょ？
 </t>
   </si>
   <si>
